--- a/学习文档/优泽/优泽-评估.xlsx
+++ b/学习文档/优泽/优泽-评估.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/GitHub/kakatool/学习文档/优泽/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="3460" windowWidth="21780" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="8780" yWindow="4580" windowWidth="25000" windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -796,6 +796,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -807,18 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1127,18 +1127,18 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1153,7 +1153,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1181,8 +1181,8 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1194,8 +1194,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1238,8 +1238,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1253,8 +1253,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1268,8 +1268,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1294,8 +1294,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1309,8 +1309,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1320,8 +1320,8 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1335,8 +1335,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1348,8 +1348,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1363,8 +1363,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1374,8 +1374,8 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1385,8 +1385,8 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1398,8 +1398,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1409,15 +1409,15 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="4"/>
@@ -1426,13 +1426,13 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
         <v>55</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1455,8 +1455,8 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1468,8 +1468,8 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="29" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1493,7 +1493,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1526,21 +1526,16 @@
       <c r="G33" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A26:A28"/>
+  <mergeCells count="13">
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="A9:A24"/>
@@ -1548,6 +1543,12 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
